--- a/midterm_2024/midterm_data.xlsx
+++ b/midterm_2024/midterm_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data_science\Python_Project\finm-quant-2025\midterm_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE055FDB-CD30-410B-A55A-6EEFFC31B9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF9C039-4ADC-4A64-B52F-671ADD8C69E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -79,13 +79,16 @@
     <t>SPY</t>
   </si>
   <si>
-    <t>USO</t>
-  </si>
-  <si>
     <t>Tnote rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Tnote rate change</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H393"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -13961,8 +13964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B87644-5D25-B942-AFFC-FD68DAEE7B5D}">
   <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -13978,13 +13981,13 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.25">
